--- a/resources/БАЗА ДАННЫХ/litefinance/excel/Foxy_Man.xlsx
+++ b/resources/БАЗА ДАННЫХ/litefinance/excel/Foxy_Man.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -503,27 +503,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023.11.24 08:59</t>
+          <t>2023.11.30 11:59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>2038.53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023.11.24 18:15</t>
+          <t>2023.11.30 12:02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2000.42</t>
+          <t>2037.86</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-642,00 USD</t>
+          <t>40,20 USD</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>GBPJPY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -545,69 +545,69 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023.11.24 02:36</t>
+          <t>2023.11.30 10:56</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1992.32</t>
+          <t>186.544</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2023.11.24 14:23</t>
+          <t>2023.11.30 11:54</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1996.28</t>
+          <t>186.67</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-396,00 USD</t>
+          <t>-85,39 USD</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EURJPY</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023.11.24 08:08</t>
+          <t>2023.11.30 11:23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>162.909</t>
+          <t>2037.8</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2023.11.24 08:18</t>
+          <t>2023.11.30 11:44</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>162.979</t>
+          <t>2039.94</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-46,84 USD</t>
+          <t>128,40 USD</t>
         </is>
       </c>
     </row>
@@ -629,27 +629,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023.11.24 08:01</t>
+          <t>2023.11.30 10:01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1993.6</t>
+          <t>2041.02</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2023.11.24 08:16</t>
+          <t>2023.11.30 11:11</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1992.74</t>
+          <t>2038.69</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>86,00 USD</t>
+          <t>233,00 USD</t>
         </is>
       </c>
     </row>
@@ -671,34 +671,34 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023.11.23 02:41</t>
+          <t>2023.11.30 10:33</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1991.72</t>
+          <t>2042.01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2023.11.23 18:07</t>
+          <t>2023.11.30 10:48</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1991.41</t>
+          <t>2040.81</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>31,00 USD</t>
+          <t>120,00 USD</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -708,39 +708,39 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023.11.23 02:48</t>
+          <t>2023.11.30 02:30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1993.37</t>
+          <t>2045.28</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2023.11.23 17:49</t>
+          <t>2023.11.30 09:57</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1991.64</t>
+          <t>2039.99</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>173,00 USD</t>
+          <t>-317,40 USD</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -750,32 +750,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023.11.22 17:00</t>
+          <t>2023.11.30 08:10</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1994.59</t>
+          <t>2044.59</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2023.11.22 17:56</t>
+          <t>2023.11.30 09:57</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1991.1</t>
+          <t>2040.01</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>349,00 USD</t>
+          <t>-137,40 USD</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>EURJPY</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -797,34 +797,34 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023.11.22 16:45</t>
+          <t>2023.11.30 07:55</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1994.41</t>
+          <t>161.329</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2023.11.22 16:53</t>
+          <t>2023.11.30 08:08</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1994.1</t>
+          <t>161.401</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>31,00 USD</t>
+          <t>-48,95 USD</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -839,39 +839,34 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023.11.22 16:40</t>
+          <t>2023.11.30 06:59</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1993.44</t>
+          <t>2041.87</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2023.11.22 16:45</t>
+          <t>2023.11.30 07:35</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1994.5</t>
+          <t>2043.95</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>106,00 USD</t>
+          <t>124,80 USD</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>PatrickGroup</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -881,34 +876,34 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023.11.22 16:00</t>
+          <t>2023.11.30 02:33</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1999.68</t>
+          <t>-84.31%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2023.11.22 16:09</t>
+          <t>2023.11.30 02:34</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>-84.31%</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>468,00 USD</t>
+          <t>0,00 USD</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -918,39 +913,39 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023.11.22 15:19</t>
+          <t>2023.11.29 13:16</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1999.46</t>
+          <t>2039.94</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2023.11.22 15:36</t>
+          <t>2023.11.29 16:49</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2001.82</t>
+          <t>2042.26</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>-472,00 USD</t>
+          <t>116,00 USD</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -960,32 +955,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023.11.22 14:35</t>
+          <t>2023.11.29 13:16</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1999.05</t>
+          <t>2039.94</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2023.11.22 15:11</t>
+          <t>2023.11.29 14:26</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2042.39</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>-195,00 USD</t>
+          <t>122,50 USD</t>
         </is>
       </c>
     </row>
@@ -1002,81 +997,81 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023.11.22 09:25</t>
+          <t>2023.11.29 10:01</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2043.18</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2023.11.22 14:24</t>
+          <t>2023.11.29 10:22</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2001.97</t>
+          <t>2040</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>-103,00 USD</t>
+          <t>318,00 USD</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>Dominic_Team</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2023.11.22 09:39</t>
+          <t>2023.11.13 08:52</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>811.59%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2023.11.22 13:24</t>
+          <t>2023.11.29 08:53</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2001.83</t>
+          <t>-43.7%</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>183,00 USD</t>
+          <t>-904,48 USD</t>
         </is>
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ryan Tran</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1086,27 +1081,27 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2023.11.22 09:23</t>
+          <t>2023.11.24 08:59</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5586.91%</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2023.11.22 09:24</t>
+          <t>2023.11.24 18:15</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>5586.91%</t>
+          <t>2000.42</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0,00 USD</t>
+          <t>-642,00 USD</t>
         </is>
       </c>
     </row>
@@ -1118,7 +1113,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>USDJPY</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1128,27 +1123,27 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2023.11.22 08:33</t>
+          <t>2023.11.24 02:36</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>148.88</t>
+          <t>1992.32</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2023.11.22 09:13</t>
+          <t>2023.11.24 14:23</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>148.942</t>
+          <t>1996.28</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>-41,63 USD</t>
+          <t>-396,00 USD</t>
         </is>
       </c>
     </row>
@@ -1160,44 +1155,44 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>EURJPY</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2023.11.22 08:13</t>
+          <t>2023.11.24 08:08</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.25193</t>
+          <t>162.909</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2023.11.22 08:31</t>
+          <t>2023.11.24 08:18</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.25228</t>
+          <t>162.979</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>35,00 USD</t>
+          <t>-46,84 USD</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1207,39 +1202,39 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2023.11.22 03:15</t>
+          <t>2023.11.24 08:01</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1997.08</t>
+          <t>1993.6</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2023.11.22 08:02</t>
+          <t>2023.11.24 08:16</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2000.45</t>
+          <t>1992.74</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>202,20 USD</t>
+          <t>86,00 USD</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1254,34 +1249,34 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2023.11.21 16:18</t>
+          <t>2023.11.23 02:41</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2003.98</t>
+          <t>1991.72</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2023.11.21 17:30</t>
+          <t>2023.11.23 18:07</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1999.56</t>
+          <t>1991.41</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>530,40 USD</t>
+          <t>31,00 USD</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1291,39 +1286,39 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2023.11.21 05:31</t>
+          <t>2023.11.23 02:48</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1992.79</t>
+          <t>1993.37</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2023.11.21 15:42</t>
+          <t>2023.11.23 17:49</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2003.64</t>
+          <t>1991.64</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>651,00 USD</t>
+          <t>173,00 USD</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1333,32 +1328,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2023.11.21 05:32</t>
+          <t>2023.11.22 17:00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1992.73</t>
+          <t>1994.59</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2023.11.21 14:32</t>
+          <t>2023.11.22 17:56</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1991.1</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>436,20 USD</t>
+          <t>349,00 USD</t>
         </is>
       </c>
     </row>
@@ -1380,27 +1375,27 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2023.11.20 17:15</t>
+          <t>2023.11.22 16:45</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1973.99</t>
+          <t>1994.41</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2023.11.21 00:03</t>
+          <t>2023.11.22 16:53</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1978.26</t>
+          <t>1994.1</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>-427,00 USD</t>
+          <t>31,00 USD</t>
         </is>
       </c>
     </row>
@@ -1422,34 +1417,34 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2023.11.20 16:03</t>
+          <t>2023.11.22 16:40</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1970.62</t>
+          <t>1993.44</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2023.11.20 16:51</t>
+          <t>2023.11.22 16:45</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1973</t>
+          <t>1994.5</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>238,00 USD</t>
+          <t>106,00 USD</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1464,27 +1459,27 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2023.11.20 15:55</t>
+          <t>2023.11.22 16:00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1971.15</t>
+          <t>1999.68</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2023.11.20 16:02</t>
+          <t>2023.11.22 16:09</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>22,50 USD</t>
+          <t>468,00 USD</t>
         </is>
       </c>
     </row>
@@ -1506,34 +1501,34 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2023.11.20 09:38</t>
+          <t>2023.11.22 15:19</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1977.32</t>
+          <t>1999.46</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2023.11.20 10:18</t>
+          <t>2023.11.22 15:36</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1979.58</t>
+          <t>2001.82</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>-452,00 USD</t>
+          <t>-472,00 USD</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1543,39 +1538,39 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2023.11.20 08:29</t>
+          <t>2023.11.22 14:35</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1979.78</t>
+          <t>1999.05</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2023.11.20 09:27</t>
+          <t>2023.11.22 15:11</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1976.8</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>-447,00 USD</t>
+          <t>-195,00 USD</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1590,34 +1585,34 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2023.11.20 04:34</t>
+          <t>2023.11.22 09:25</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1982.87</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2023.11.20 09:27</t>
+          <t>2023.11.22 14:24</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1976.81</t>
+          <t>2001.97</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>-909,00 USD</t>
+          <t>-103,00 USD</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1632,81 +1627,76 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2023.11.20 08:17</t>
+          <t>2023.11.22 09:39</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1979.74</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2023.11.20 08:26</t>
+          <t>2023.11.22 13:24</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1980.43</t>
+          <t>2001.83</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>103,50 USD</t>
+          <t>183,00 USD</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>Ryan Tran</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2023.11.17 13:47</t>
+          <t>2023.11.22 09:23</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1990.21</t>
+          <t>5586.91%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2023.11.17 14:39</t>
+          <t>2023.11.22 09:24</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1987.99</t>
+          <t>5586.91%</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>-333,00 USD</t>
+          <t>0,00 USD</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>USDJPY</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1716,34 +1706,34 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2023.11.17 10:11</t>
+          <t>2023.11.22 08:33</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.2393</t>
+          <t>148.88</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2023.11.17 13:44</t>
+          <t>2023.11.22 09:13</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1.244</t>
+          <t>148.942</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>-705,00 USD</t>
+          <t>-41,63 USD</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1753,39 +1743,39 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2023.11.17 12:18</t>
+          <t>2023.11.22 08:13</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.243</t>
+          <t>1.25193</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2023.11.17 13:43</t>
+          <t>2023.11.22 08:31</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1.24415</t>
+          <t>1.25228</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>-172,50 USD</t>
+          <t>35,00 USD</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1795,39 +1785,39 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2023.11.17 10:31</t>
+          <t>2023.11.22 03:15</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1990.63</t>
+          <t>1997.08</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2023.11.17 11:15</t>
+          <t>2023.11.22 08:02</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1993.08</t>
+          <t>2000.45</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>-367,50 USD</t>
+          <t>202,20 USD</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1837,44 +1827,44 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2023.11.17 09:03</t>
+          <t>2023.11.21 16:18</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1986.05</t>
+          <t>2003.98</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2023.11.17 10:00</t>
+          <t>2023.11.21 17:30</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1988.44</t>
+          <t>1999.56</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>239,00 USD</t>
+          <t>530,40 USD</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1884,34 +1874,34 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2023.11.17 08:59</t>
+          <t>2023.11.21 05:31</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.23858</t>
+          <t>1992.79</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2023.11.17 10:00</t>
+          <t>2023.11.21 15:42</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1.23811</t>
+          <t>2003.64</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>-47,00 USD</t>
+          <t>651,00 USD</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1926,27 +1916,27 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2023.11.17 03:45</t>
+          <t>2023.11.21 05:32</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1984.14</t>
+          <t>1992.73</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2023.11.17 08:57</t>
+          <t>2023.11.21 14:32</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1986.7</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>256,00 USD</t>
+          <t>436,20 USD</t>
         </is>
       </c>
     </row>
@@ -1963,44 +1953,44 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2023.11.17 07:46</t>
+          <t>2023.11.20 17:15</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1983.05</t>
+          <t>1973.99</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2023.11.17 08:39</t>
+          <t>2023.11.21 00:03</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1986.21</t>
+          <t>1978.26</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>316,00 USD</t>
+          <t>-427,00 USD</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>EURUSD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2010,76 +2000,76 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2023.11.17 04:11</t>
+          <t>2023.11.20 16:03</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1.08565</t>
+          <t>1970.62</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2023.11.17 08:35</t>
+          <t>2023.11.20 16:51</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1.08355</t>
+          <t>1973</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>-420,00 USD</t>
+          <t>238,00 USD</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>EURUSD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2023.11.17 08:12</t>
+          <t>2023.11.20 15:55</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1.08442</t>
+          <t>1971.15</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2023.11.17 08:31</t>
+          <t>2023.11.20 16:02</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1.08355</t>
+          <t>1971</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>-174,00 USD</t>
+          <t>22,50 USD</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2089,39 +2079,39 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2023.11.16 17:54</t>
+          <t>2023.11.20 09:38</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1981.31</t>
+          <t>1977.32</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2023.11.16 19:03</t>
+          <t>2023.11.20 10:18</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1984.07</t>
+          <t>1979.58</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>414,00 USD</t>
+          <t>-452,00 USD</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2136,34 +2126,34 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2023.11.15 12:13</t>
+          <t>2023.11.20 08:29</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1972.51</t>
+          <t>1979.78</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2023.11.16 15:36</t>
+          <t>2023.11.20 09:27</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1974.06</t>
+          <t>1976.8</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>19,94 USD</t>
+          <t>-447,00 USD</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2178,34 +2168,34 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2023.11.15 14:35</t>
+          <t>2023.11.20 04:34</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1968.52</t>
+          <t>1982.87</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2023.11.16 14:30</t>
+          <t>2023.11.20 09:27</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>1970.11</t>
+          <t>1976.81</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>43,87 USD</t>
+          <t>-909,00 USD</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2220,27 +2210,27 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2023.11.16 11:04</t>
+          <t>2023.11.20 08:17</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1966.4</t>
+          <t>1979.74</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2023.11.16 13:13</t>
+          <t>2023.11.20 08:26</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1963.42</t>
+          <t>1980.43</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>-298,00 USD</t>
+          <t>103,50 USD</t>
         </is>
       </c>
     </row>
@@ -2252,128 +2242,128 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>GBPJPY</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2023.11.16 10:24</t>
+          <t>2023.11.17 13:47</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>187.47</t>
+          <t>1990.21</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2023.11.16 10:56</t>
+          <t>2023.11.17 14:39</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>187.631</t>
+          <t>1987.99</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>-159,64 USD</t>
+          <t>-333,00 USD</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2023.11.16 09:20</t>
+          <t>2023.11.17 10:11</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1965.18</t>
+          <t>1.2393</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2023.11.16 10:00</t>
+          <t>2023.11.17 13:44</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1967.5</t>
+          <t>1.244</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>232,00 USD</t>
+          <t>-705,00 USD</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2023.11.15 14:41</t>
+          <t>2023.11.17 12:18</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1965.5</t>
+          <t>1.243</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2023.11.16 08:01</t>
+          <t>2023.11.17 13:43</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1967.47</t>
+          <t>1.24415</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>81,87 USD</t>
+          <t>-172,50 USD</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2388,34 +2378,34 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2023.11.15 19:36</t>
+          <t>2023.11.17 10:31</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1959.37</t>
+          <t>1990.63</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2023.11.16 04:22</t>
+          <t>2023.11.17 11:15</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1961.6</t>
+          <t>1993.08</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>-192,25 USD</t>
+          <t>-367,50 USD</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2425,32 +2415,32 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2023.11.15 19:36</t>
+          <t>2023.11.17 09:03</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1959.37</t>
+          <t>1986.05</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2023.11.16 04:14</t>
+          <t>2023.11.17 10:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1962.29</t>
+          <t>1988.44</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>-522,50 USD</t>
+          <t>239,00 USD</t>
         </is>
       </c>
     </row>
@@ -2462,37 +2452,37 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2023.11.15 19:38</t>
+          <t>2023.11.17 08:59</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1959.37</t>
+          <t>1.23858</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2023.11.16 03:14</t>
+          <t>2023.11.17 10:00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1957.85</t>
+          <t>1.23811</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>182,75 USD</t>
+          <t>-47,00 USD</t>
         </is>
       </c>
     </row>
@@ -2514,27 +2504,27 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2023.11.15 17:46</t>
+          <t>2023.11.17 03:45</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1961.18</t>
+          <t>1984.14</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2023.11.15 17:51</t>
+          <t>2023.11.17 08:57</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1962.57</t>
+          <t>1986.7</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>139,00 USD</t>
+          <t>256,00 USD</t>
         </is>
       </c>
     </row>
@@ -2556,39 +2546,39 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2023.11.15 15:47</t>
+          <t>2023.11.17 07:46</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1961.75</t>
+          <t>1983.05</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2023.11.15 16:52</t>
+          <t>2023.11.17 08:39</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1963.98</t>
+          <t>1986.21</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>223,00 USD</t>
+          <t>316,00 USD</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>EURUSD</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2598,39 +2588,39 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2023.11.15 12:13</t>
+          <t>2023.11.17 04:11</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1972.51</t>
+          <t>1.08565</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2023.11.15 14:29</t>
+          <t>2023.11.17 08:35</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1971.49</t>
+          <t>1.08355</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>-51,00 USD</t>
+          <t>-420,00 USD</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>EURUSD</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2640,34 +2630,34 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2023.11.15 11:44</t>
+          <t>2023.11.17 08:12</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1973.41</t>
+          <t>1.08442</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2023.11.15 14:29</t>
+          <t>2023.11.17 08:31</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1971.45</t>
+          <t>1.08355</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>-196,00 USD</t>
+          <t>-174,00 USD</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2682,34 +2672,34 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2023.11.15 13:32</t>
+          <t>2023.11.16 17:54</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1970.85</t>
+          <t>1981.31</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2023.11.15 13:35</t>
+          <t>2023.11.16 19:03</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1971.99</t>
+          <t>1984.07</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>114,00 USD</t>
+          <t>414,00 USD</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2724,27 +2714,27 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2023.11.15 09:26</t>
+          <t>2023.11.15 12:13</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1971.98</t>
+          <t>1972.51</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2023.11.15 11:35</t>
+          <t>2023.11.16 15:36</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1972.8</t>
+          <t>1974.06</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>82,00 USD</t>
+          <t>19,94 USD</t>
         </is>
       </c>
     </row>
@@ -2766,34 +2756,34 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2023.11.15 09:40</t>
+          <t>2023.11.15 14:35</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1971.19</t>
+          <t>1968.52</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2023.11.15 11:35</t>
+          <t>2023.11.16 14:30</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1972.93</t>
+          <t>1970.11</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>174,00 USD</t>
+          <t>43,87 USD</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2803,32 +2793,32 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2023.11.15 05:00</t>
+          <t>2023.11.16 11:04</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1966.85</t>
+          <t>1966.4</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2023.11.15 09:25</t>
+          <t>2023.11.16 13:13</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1972.24</t>
+          <t>1963.42</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>-808,50 USD</t>
+          <t>-298,00 USD</t>
         </is>
       </c>
     </row>
@@ -2840,7 +2830,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>GBPJPY</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2850,34 +2840,34 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2023.11.15 08:39</t>
+          <t>2023.11.16 10:24</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1970.69</t>
+          <t>187.47</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2023.11.15 09:22</t>
+          <t>2023.11.16 10:56</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>1971.98</t>
+          <t>187.631</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>-193,50 USD</t>
+          <t>-159,64 USD</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2887,74 +2877,74 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2023.11.15 07:31</t>
+          <t>2023.11.16 09:20</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1969.97</t>
+          <t>1965.18</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2023.11.15 08:11</t>
+          <t>2023.11.16 10:00</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>1968.52</t>
+          <t>1967.5</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>217,50 USD</t>
+          <t>232,00 USD</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2023.11.15 04:32</t>
+          <t>2023.11.15 14:41</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1.24881</t>
+          <t>1965.5</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2023.11.15 08:04</t>
+          <t>2023.11.16 08:01</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>1.2475</t>
+          <t>1967.47</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>196,50 USD</t>
+          <t>81,87 USD</t>
         </is>
       </c>
     </row>
@@ -2976,34 +2966,34 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2023.11.15 04:36</t>
+          <t>2023.11.15 19:36</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1965.41</t>
+          <t>1959.37</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2023.11.15 04:55</t>
+          <t>2023.11.16 04:22</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1967.02</t>
+          <t>1961.6</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>-161,00 USD</t>
+          <t>-192,25 USD</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3013,39 +3003,39 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2023.11.14 11:52</t>
+          <t>2023.11.15 19:36</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1947.04</t>
+          <t>1959.37</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2023.11.14 14:31</t>
+          <t>2023.11.16 04:14</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1954.68</t>
+          <t>1962.29</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>382,00 USD</t>
+          <t>-522,50 USD</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3055,32 +3045,32 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2023.11.14 11:52</t>
+          <t>2023.11.15 19:38</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1947.04</t>
+          <t>1959.37</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2023.11.14 14:27</t>
+          <t>2023.11.16 03:14</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>1945.93</t>
+          <t>1957.85</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>-55,50 USD</t>
+          <t>182,75 USD</t>
         </is>
       </c>
     </row>
@@ -3102,27 +3092,27 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2023.11.14 13:48</t>
+          <t>2023.11.15 17:46</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1945.12</t>
+          <t>1961.18</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2023.11.14 14:18</t>
+          <t>2023.11.15 17:51</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>1946.09</t>
+          <t>1962.57</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>97,00 USD</t>
+          <t>139,00 USD</t>
         </is>
       </c>
     </row>
@@ -3139,39 +3129,39 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2023.11.14 11:21</t>
+          <t>2023.11.15 15:47</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1947.38</t>
+          <t>1961.75</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2023.11.14 11:36</t>
+          <t>2023.11.15 16:52</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1947.38</t>
+          <t>1963.98</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>0,00 USD</t>
+          <t>223,00 USD</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3186,34 +3176,34 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2023.11.14 10:35</t>
+          <t>2023.11.15 12:13</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1946.6</t>
+          <t>1972.51</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2023.11.14 10:52</t>
+          <t>2023.11.15 14:29</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>1947.01</t>
+          <t>1971.49</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>41,00 USD</t>
+          <t>-51,00 USD</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3223,39 +3213,39 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2023.11.14 10:26</t>
+          <t>2023.11.15 11:44</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1946.94</t>
+          <t>1973.41</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2023.11.14 10:33</t>
+          <t>2023.11.15 14:29</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>1946.31</t>
+          <t>1971.45</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>94,50 USD</t>
+          <t>-196,00 USD</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3270,27 +3260,27 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2023.11.14 09:36</t>
+          <t>2023.11.15 13:32</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1946.26</t>
+          <t>1970.85</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2023.11.14 10:17</t>
+          <t>2023.11.15 13:35</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>1947.2</t>
+          <t>1971.99</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>141,00 USD</t>
+          <t>114,00 USD</t>
         </is>
       </c>
     </row>
@@ -3312,27 +3302,27 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2023.11.14 09:50</t>
+          <t>2023.11.15 09:26</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1945.37</t>
+          <t>1971.98</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2023.11.14 10:16</t>
+          <t>2023.11.15 11:35</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>1946.38</t>
+          <t>1972.8</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>101,00 USD</t>
+          <t>82,00 USD</t>
         </is>
       </c>
     </row>
@@ -3349,39 +3339,39 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2023.11.14 04:38</t>
+          <t>2023.11.15 09:40</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1945.29</t>
+          <t>1971.19</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2023.11.14 09:35</t>
+          <t>2023.11.15 11:35</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>1946.21</t>
+          <t>1972.93</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>-92,00 USD</t>
+          <t>174,00 USD</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3396,34 +3386,34 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2023.11.14 08:13</t>
+          <t>2023.11.15 05:00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1945.88</t>
+          <t>1966.85</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2023.11.14 09:14</t>
+          <t>2023.11.15 09:25</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>1944.77</t>
+          <t>1972.24</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>111,00 USD</t>
+          <t>-808,50 USD</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3438,34 +3428,34 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2023.11.14 03:48</t>
+          <t>2023.11.15 08:39</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1945.84</t>
+          <t>1970.69</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2023.11.14 04:13</t>
+          <t>2023.11.15 09:22</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>1945.38</t>
+          <t>1971.98</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>46,00 USD</t>
+          <t>-193,50 USD</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3480,39 +3470,39 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2023.11.14 02:46</t>
+          <t>2023.11.15 07:31</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1946.57</t>
+          <t>1969.97</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2023.11.14 04:13</t>
+          <t>2023.11.15 08:11</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>1945.32</t>
+          <t>1968.52</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>125,00 USD</t>
+          <t>217,50 USD</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3522,27 +3512,27 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2023.11.14 03:16</t>
+          <t>2023.11.15 04:32</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1946.46</t>
+          <t>1.24881</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2023.11.14 03:21</t>
+          <t>2023.11.15 08:04</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>1945.03</t>
+          <t>1.2475</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>143,00 USD</t>
+          <t>196,50 USD</t>
         </is>
       </c>
     </row>
@@ -3564,34 +3554,34 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2023.11.13 18:30</t>
+          <t>2023.11.15 04:36</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1947.25</t>
+          <t>1965.41</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2023.11.13 19:31</t>
+          <t>2023.11.15 04:55</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>1946.11</t>
+          <t>1967.02</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>114,00 USD</t>
+          <t>-161,00 USD</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3601,39 +3591,39 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2023.11.13 17:46</t>
+          <t>2023.11.14 11:52</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1944.56</t>
+          <t>1947.04</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2023.11.13 17:52</t>
+          <t>2023.11.14 14:31</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>1946.49</t>
+          <t>1954.68</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>-193,00 USD</t>
+          <t>382,00 USD</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3648,27 +3638,27 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2023.11.13 14:08</t>
+          <t>2023.11.14 11:52</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1936.3</t>
+          <t>1947.04</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2023.11.13 15:11</t>
+          <t>2023.11.14 14:27</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>1933.95</t>
+          <t>1945.93</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>-235,00 USD</t>
+          <t>-55,50 USD</t>
         </is>
       </c>
     </row>
@@ -3685,32 +3675,32 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2023.11.13 10:43</t>
+          <t>2023.11.14 13:48</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1938.57</t>
+          <t>1945.12</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2023.11.13 14:00</t>
+          <t>2023.11.14 14:18</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>1936.75</t>
+          <t>1946.09</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>182,00 USD</t>
+          <t>97,00 USD</t>
         </is>
       </c>
     </row>
@@ -3732,27 +3722,27 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2023.11.13 08:57</t>
+          <t>2023.11.14 11:21</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1939.09</t>
+          <t>1947.38</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2023.11.13 09:49</t>
+          <t>2023.11.14 11:36</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>1936.59</t>
+          <t>1947.38</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>250,00 USD</t>
+          <t>0,00 USD</t>
         </is>
       </c>
     </row>
@@ -3774,34 +3764,34 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2023.11.13 04:47</t>
+          <t>2023.11.14 10:35</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1935.85</t>
+          <t>1946.6</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2023.11.13 06:39</t>
+          <t>2023.11.14 10:52</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>1939</t>
+          <t>1947.01</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>315,00 USD</t>
+          <t>41,00 USD</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3816,34 +3806,34 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2023.11.09 16:02</t>
+          <t>2023.11.14 10:26</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>1957.29</t>
+          <t>1946.94</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2023.11.09 21:45</t>
+          <t>2023.11.14 10:33</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>1958.42</t>
+          <t>1946.31</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>-113,00 USD</t>
+          <t>94,50 USD</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3853,32 +3843,32 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2023.11.09 19:30</t>
+          <t>2023.11.14 09:36</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>1963.43</t>
+          <t>1946.26</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2023.11.09 20:00</t>
+          <t>2023.11.14 10:17</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>1961.6</t>
+          <t>1947.2</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>183,00 USD</t>
+          <t>141,00 USD</t>
         </is>
       </c>
     </row>
@@ -3895,39 +3885,39 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2023.11.09 18:02</t>
+          <t>2023.11.14 09:50</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1961.17</t>
+          <t>1945.37</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2023.11.09 19:06</t>
+          <t>2023.11.14 10:16</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>1959.53</t>
+          <t>1946.38</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>164,00 USD</t>
+          <t>101,00 USD</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3942,27 +3932,27 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2023.11.09 17:00</t>
+          <t>2023.11.14 04:38</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1962.56</t>
+          <t>1945.29</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2023.11.09 17:56</t>
+          <t>2023.11.14 09:35</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>1960.53</t>
+          <t>1946.21</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>406,00 USD</t>
+          <t>-92,00 USD</t>
         </is>
       </c>
     </row>
@@ -3984,34 +3974,34 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2023.11.09 16:37</t>
+          <t>2023.11.14 08:13</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1960.26</t>
+          <t>1945.88</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2023.11.09 16:39</t>
+          <t>2023.11.14 09:14</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>1962.05</t>
+          <t>1944.77</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>-179,00 USD</t>
+          <t>111,00 USD</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4026,34 +4016,34 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2023.11.09 14:36</t>
+          <t>2023.11.14 03:48</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>1946.8</t>
+          <t>1945.84</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2023.11.09 14:52</t>
+          <t>2023.11.14 04:13</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1948</t>
+          <t>1945.38</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>-96,00 USD</t>
+          <t>46,00 USD</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4068,34 +4058,34 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2023.11.09 14:34</t>
+          <t>2023.11.14 02:46</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>1945.37</t>
+          <t>1946.57</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2023.11.09 14:52</t>
+          <t>2023.11.14 04:13</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>1948</t>
+          <t>1945.32</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>-210,40 USD</t>
+          <t>125,00 USD</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4110,27 +4100,27 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2023.11.09 09:26</t>
+          <t>2023.11.14 03:16</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1946.73</t>
+          <t>1946.46</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2023.11.09 13:45</t>
+          <t>2023.11.14 03:21</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>1947.1</t>
+          <t>1945.03</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>-74,00 USD</t>
+          <t>143,00 USD</t>
         </is>
       </c>
     </row>
@@ -4152,27 +4142,27 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2023.11.09 12:36</t>
+          <t>2023.11.13 18:30</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1947.36</t>
+          <t>1947.25</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2023.11.09 13:14</t>
+          <t>2023.11.13 19:31</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>1946.52</t>
+          <t>1946.11</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>84,00 USD</t>
+          <t>114,00 USD</t>
         </is>
       </c>
     </row>
@@ -4184,44 +4174,44 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>EURUSD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2023.11.09 08:48</t>
+          <t>2023.11.13 17:46</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1.07096</t>
+          <t>1944.56</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2023.11.09 10:41</t>
+          <t>2023.11.13 17:52</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>1.06949</t>
+          <t>1946.49</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>-147,00 USD</t>
+          <t>-193,00 USD</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4231,39 +4221,39 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2023.11.09 10:11</t>
+          <t>2023.11.13 14:08</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1948.86</t>
+          <t>1936.3</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2023.11.09 10:22</t>
+          <t>2023.11.13 15:11</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>1947.74</t>
+          <t>1933.95</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>224,00 USD</t>
+          <t>-235,00 USD</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4278,27 +4268,27 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2023.11.09 09:46</t>
+          <t>2023.11.13 10:43</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1949.33</t>
+          <t>1938.57</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2023.11.09 09:54</t>
+          <t>2023.11.13 14:00</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>1948.43</t>
+          <t>1936.75</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>180,00 USD</t>
+          <t>182,00 USD</t>
         </is>
       </c>
     </row>
@@ -4315,32 +4305,32 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2023.11.09 09:03</t>
+          <t>2023.11.13 08:57</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1948.91</t>
+          <t>1939.09</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2023.11.09 09:13</t>
+          <t>2023.11.13 09:49</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>1946.96</t>
+          <t>1936.59</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>-195,00 USD</t>
+          <t>250,00 USD</t>
         </is>
       </c>
     </row>
@@ -4362,34 +4352,34 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2023.11.09 07:38</t>
+          <t>2023.11.13 04:47</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1950.16</t>
+          <t>1935.85</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2023.11.09 09:13</t>
+          <t>2023.11.13 06:39</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>1946.96</t>
+          <t>1939</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>-320,00 USD</t>
+          <t>315,00 USD</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4404,34 +4394,34 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2023.11.09 05:10</t>
+          <t>2023.11.09 16:02</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1948.87</t>
+          <t>1957.29</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2023.11.09 07:38</t>
+          <t>2023.11.09 21:45</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>1950.11</t>
+          <t>1958.42</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>-99,20 USD</t>
+          <t>-113,00 USD</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4446,34 +4436,34 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2023.11.09 05:10</t>
+          <t>2023.11.09 19:30</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>1948.81</t>
+          <t>1963.43</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2023.11.09 07:18</t>
+          <t>2023.11.09 20:00</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>1950.49</t>
+          <t>1961.6</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>-16,80 USD</t>
+          <t>183,00 USD</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4488,34 +4478,34 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2023.11.08 17:24</t>
+          <t>2023.11.09 18:02</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>1955.35</t>
+          <t>1961.17</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2023.11.08 17:31</t>
+          <t>2023.11.09 19:06</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>1956.71</t>
+          <t>1959.53</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>-108,80 USD</t>
+          <t>164,00 USD</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -4530,34 +4520,34 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2023.11.08 16:34</t>
+          <t>2023.11.09 17:00</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>1957.49</t>
+          <t>1962.56</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2023.11.08 16:39</t>
+          <t>2023.11.09 17:56</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>1954.32</t>
+          <t>1960.53</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>253,60 USD</t>
+          <t>406,00 USD</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -4572,39 +4562,39 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2023.11.08 16:10</t>
+          <t>2023.11.09 16:37</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>1958.99</t>
+          <t>1960.26</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2023.11.08 16:23</t>
+          <t>2023.11.09 16:39</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>1962.05</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>159,20 USD</t>
+          <t>-179,00 USD</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4614,67 +4604,655 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2023.11.08 10:31</t>
+          <t>2023.11.09 14:36</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>1.90623</t>
+          <t>1946.8</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2023.11.08 14:29</t>
+          <t>2023.11.09 14:52</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>1.90909</t>
+          <t>1948</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>-183,72 USD</t>
+          <t>-96,00 USD</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023.11.09 14:34</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>1945.37</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2023.11.09 14:52</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>1948</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>-210,40 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023.11.09 09:26</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>1946.73</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2023.11.09 13:45</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>1947.1</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>-74,00 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023.11.09 12:36</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>1947.36</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2023.11.09 13:14</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>1946.52</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>84,00 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023.11.09 08:48</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>1.07096</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2023.11.09 10:41</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>1.06949</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>-147,00 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023.11.09 10:11</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>1948.86</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2023.11.09 10:22</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>1947.74</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>224,00 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023.11.09 09:46</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>1949.33</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2023.11.09 09:54</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>1948.43</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>180,00 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023.11.09 09:03</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>1948.91</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2023.11.09 09:13</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>1946.96</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>-195,00 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023.11.09 07:38</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>1950.16</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2023.11.09 09:13</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>1946.96</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>-320,00 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>0,8</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023.11.09 05:10</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>1948.87</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2023.11.09 07:38</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>1950.11</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>-99,20 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023.11.09 05:10</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>1948.81</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2023.11.09 07:18</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>1950.49</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>-16,80 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>0,8</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023.11.08 17:24</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>1955.35</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2023.11.08 17:31</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>1956.71</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>-108,80 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>0,8</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023.11.08 16:34</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>1957.49</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2023.11.08 16:39</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>1954.32</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>253,60 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>0,8</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023.11.08 16:10</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>1958.99</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2023.11.08 16:23</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>1957</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>159,20 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>GBPAUD</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023.11.08 10:31</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>1.90623</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2023.11.08 14:29</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>1.90909</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>-183,72 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
           <t>GBPUSD</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>buy</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="D115" t="inlineStr">
         <is>
           <t>2023.11.08 10:35</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>1.22498</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>2023.11.08 11:06</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>1.22474</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>-24,00 USD</t>
         </is>
